--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -173,10 +173,25 @@
     <t>更好的移动主角</t>
   </si>
   <si>
-    <t>主角的移动范围控制</t>
+    <t>主角的移动范围控制1</t>
   </si>
   <si>
     <t>目前主角的移动范围太高了，移动上去很容易就打死怪物了，可以通过子弹，或者限制等，限制主角移动范围</t>
+  </si>
+  <si>
+    <t>主角的移动范围控制2</t>
+  </si>
+  <si>
+    <t>增加两个左右按钮也是一种选择，只让玩家左右操作</t>
+  </si>
+  <si>
+    <t>移动方向指引节点抬起也可以出发发射武器</t>
+  </si>
+  <si>
+    <t>武器造型优化</t>
+  </si>
+  <si>
+    <t>目前武器的造型太大了，命中率较高，而且不是特别美观，细长的武器是一种好的选择</t>
   </si>
 </sst>
 </file>
@@ -184,10 +199,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -210,32 +225,85 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -260,15 +328,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,78 +360,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -391,168 +406,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -565,13 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,47 +618,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,20 +641,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,143 +688,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,10 +1264,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1547,7 +1562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="2:4">
+    <row r="28" ht="108" customHeight="1" spans="2:4">
       <c r="B28" s="5">
         <v>24</v>
       </c>
@@ -1556,6 +1571,37 @@
       </c>
       <c r="D28" s="7" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="29" ht="71" customHeight="1" spans="2:4">
+      <c r="B29" s="5">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" ht="88" customHeight="1" spans="2:4">
+      <c r="B30" s="5">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" ht="92" customHeight="1" spans="2:4">
+      <c r="B31" s="5">
+        <v>26</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -192,6 +192,42 @@
   </si>
   <si>
     <t>目前武器的造型太大了，命中率较高，而且不是特别美观，细长的武器是一种好的选择</t>
+  </si>
+  <si>
+    <t>主角优化</t>
+  </si>
+  <si>
+    <t>主角目前只是一个头，可以画出一个小小的身体，在空中根据弓的方向，摆出不同方向的造型，选在空中很滑稽</t>
+  </si>
+  <si>
+    <t>boss设置</t>
+  </si>
+  <si>
+    <t>每关或者各几关会出现意外boss，这时候，直接改成传统射击，并且可以游戏内升级武器，目前依然使用一个创新玩法，就是一个道具吃到就增加一个弹道，一个道具增加威力，一个增加速度，当然，后面还可以做其他道具</t>
+  </si>
+  <si>
+    <t>综合射击感受的概念</t>
+  </si>
+  <si>
+    <t>目前玩法是相当于狙击，boss是扫射，意外boss是投掷等射击表现，玩法不一样，但是都是射击类</t>
+  </si>
+  <si>
+    <t>增加射击取消按钮后</t>
+  </si>
+  <si>
+    <t>滑动到取消按钮，则取消射击，滑动屏幕的时候才会出现</t>
+  </si>
+  <si>
+    <t>射击完毕回到原位，设计取消后也回到原位</t>
+  </si>
+  <si>
+    <t>这种方式，属于分解操作，一次一签的感觉，并且从某种意义上说简化和优化了操作难度，此时箭可以考虑不旋转</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>箭射出去后移动箭的父节点依然可以带动箭，计算发射出去的箭的xy赋值给箭，然后计算位置偏移补上</t>
   </si>
 </sst>
 </file>
@@ -199,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -230,6 +266,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -239,51 +334,54 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,68 +396,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -406,13 +442,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,25 +538,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,49 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,79 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,32 +661,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -665,11 +675,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,17 +720,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,137 +754,137 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1264,10 +1300,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D31"/>
+  <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1595,7 +1631,7 @@
     </row>
     <row r="31" ht="92" customHeight="1" spans="2:4">
       <c r="B31" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -1603,6 +1639,79 @@
       <c r="D31" s="7" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="32" ht="130" customHeight="1" spans="2:4">
+      <c r="B32" s="5">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" ht="123" customHeight="1" spans="2:4">
+      <c r="B33" s="5">
+        <v>29</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" ht="103" customHeight="1" spans="2:4">
+      <c r="B34" s="5">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" ht="93" customHeight="1" spans="2:4">
+      <c r="B35" s="5">
+        <v>31</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" ht="93" customHeight="1" spans="2:4">
+      <c r="B36" s="5">
+        <v>32</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" ht="73" customHeight="1" spans="2:4">
+      <c r="B37" s="5">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:4">
+      <c r="B38" s="5">
+        <v>34</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="10680" tabRatio="500"/>
+    <workbookView windowWidth="20565" windowHeight="11265" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018.1月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -29,6 +29,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>是否执行</t>
+  </si>
+  <si>
     <t>地图的样式</t>
   </si>
   <si>
@@ -228,6 +231,42 @@
   </si>
   <si>
     <t>箭射出去后移动箭的父节点依然可以带动箭，计算发射出去的箭的xy赋值给箭，然后计算位置偏移补上</t>
+  </si>
+  <si>
+    <t>升级爆头率</t>
+  </si>
+  <si>
+    <t>增加升级爆头率，或者是某个英雄爆头率高，一招制胜，boss的是倍击</t>
+  </si>
+  <si>
+    <t>武器出来的位置</t>
+  </si>
+  <si>
+    <t>拿出武器时武器应该在点击位置的上方，并且能完全看到箭</t>
+  </si>
+  <si>
+    <t>武器的数量</t>
+  </si>
+  <si>
+    <t>每种武器应该有数量限制</t>
+  </si>
+  <si>
+    <t>滑动射击，力量控制</t>
+  </si>
+  <si>
+    <t>弓的弓弦，然后又力量控制，增加一个操作，体验真实拉动射击的感觉</t>
+  </si>
+  <si>
+    <t>主角范围控制</t>
+  </si>
+  <si>
+    <t>控制主角的范围，尤其是主角在下面的时候，这样箭在手的上方都没有问题，不会滑动到手机的外面</t>
+  </si>
+  <si>
+    <t>弓箭的造型不够夸张</t>
+  </si>
+  <si>
+    <t>目前弓箭的大小太小了，无法体现弓箭射击的主题</t>
   </si>
 </sst>
 </file>
@@ -237,8 +276,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -267,14 +306,119 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,27 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -319,95 +442,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -448,7 +487,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +517,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,37 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +577,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,97 +613,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,15 +690,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -671,6 +701,59 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,191 +787,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,6 +950,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,30 +1342,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D38"/>
+  <dimension ref="B2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.425" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.3833333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="56.6333333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="65.4333333333333" style="2" customWidth="1"/>
-    <col min="5" max="1024" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="2" customWidth="1"/>
     <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="2:4">
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1333,385 +1377,489 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" ht="71" customHeight="1" spans="2:4">
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="71" customHeight="1" spans="2:5">
       <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" ht="80" customHeight="1" spans="2:4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" ht="80" customHeight="1" spans="2:5">
       <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="95" customHeight="1" spans="2:4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="95" customHeight="1" spans="2:5">
       <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="96" customHeight="1" spans="2:4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="96" customHeight="1" spans="2:5">
       <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="110" customHeight="1" spans="2:4">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" ht="110" customHeight="1" spans="2:5">
       <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="87" customHeight="1" spans="2:4">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="87" customHeight="1" spans="2:5">
       <c r="B9" s="5">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="80" customHeight="1" spans="2:4">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" ht="80" customHeight="1" spans="2:5">
       <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="73" customHeight="1" spans="2:4">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" ht="73" customHeight="1" spans="2:5">
       <c r="B11" s="5">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="110" customHeight="1" spans="2:4">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" ht="110" customHeight="1" spans="2:5">
       <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="80" customHeight="1" spans="2:4">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" ht="80" customHeight="1" spans="2:5">
       <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="162" customHeight="1" spans="2:4">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" ht="162" customHeight="1" spans="2:5">
       <c r="B14" s="5">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" ht="116" customHeight="1" spans="2:4">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" ht="116" customHeight="1" spans="2:5">
       <c r="B15" s="5">
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="88" customHeight="1" spans="2:4">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" ht="88" customHeight="1" spans="2:5">
       <c r="B16" s="5">
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="105" customHeight="1" spans="2:4">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" ht="105" customHeight="1" spans="2:5">
       <c r="B17" s="5">
         <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="88" customHeight="1" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" ht="88" customHeight="1" spans="2:5">
       <c r="B18" s="5">
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" ht="90" customHeight="1" spans="2:4">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" ht="90" customHeight="1" spans="2:5">
       <c r="B19" s="5">
         <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" ht="95" customHeight="1" spans="2:4">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" ht="95" customHeight="1" spans="2:5">
       <c r="B20" s="5">
         <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" ht="86" customHeight="1" spans="2:4">
+        <v>38</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" ht="86" customHeight="1" spans="2:5">
       <c r="B21" s="5">
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" ht="84" customHeight="1" spans="2:4">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" ht="84" customHeight="1" spans="2:5">
       <c r="B22" s="5">
         <v>19</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" ht="94" customHeight="1" spans="2:4">
+        <v>42</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" ht="94" customHeight="1" spans="2:5">
       <c r="B23" s="5">
         <v>20</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:4">
+        <v>44</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:5">
       <c r="B24" s="5">
         <v>21</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" ht="85" customHeight="1" spans="2:4">
+        <v>46</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" ht="85" customHeight="1" spans="2:5">
       <c r="B25" s="5">
         <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:4">
+        <v>48</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:5">
       <c r="B26" s="5">
         <v>23</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:4">
+        <v>50</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:5">
       <c r="B27" s="5">
         <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" ht="108" customHeight="1" spans="2:4">
-      <c r="B28" s="5">
+        <v>52</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" ht="108" customHeight="1" spans="2:5">
+      <c r="B28" s="8">
         <v>24</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" ht="71" customHeight="1" spans="2:4">
+      <c r="D28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" ht="71" customHeight="1" spans="2:5">
       <c r="B29" s="5">
         <v>25</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" ht="88" customHeight="1" spans="2:4">
-      <c r="B30" s="5">
+        <v>56</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" ht="88" customHeight="1" spans="2:5">
+      <c r="B30" s="8">
         <v>26</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" ht="92" customHeight="1" spans="2:4">
+      <c r="C30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" ht="92" customHeight="1" spans="2:5">
       <c r="B31" s="5">
         <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" ht="130" customHeight="1" spans="2:4">
+        <v>59</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="130" customHeight="1" spans="2:5">
       <c r="B32" s="5">
         <v>28</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" ht="123" customHeight="1" spans="2:4">
+        <v>61</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" ht="123" customHeight="1" spans="2:5">
       <c r="B33" s="5">
         <v>29</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" ht="103" customHeight="1" spans="2:4">
+        <v>63</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" ht="103" customHeight="1" spans="2:5">
       <c r="B34" s="5">
         <v>30</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" ht="93" customHeight="1" spans="2:4">
-      <c r="B35" s="5">
+        <v>65</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" ht="93" customHeight="1" spans="2:5">
+      <c r="B35" s="8">
         <v>31</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" ht="93" customHeight="1" spans="2:4">
+      <c r="D35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" ht="93" customHeight="1" spans="2:5">
       <c r="B36" s="5">
         <v>32</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" ht="73" customHeight="1" spans="2:4">
+        <v>69</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" ht="73" customHeight="1" spans="2:5">
       <c r="B37" s="5">
         <v>33</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:4">
+        <v>71</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" ht="99" customHeight="1" spans="2:5">
       <c r="B38" s="5">
         <v>34</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:5">
+      <c r="B39" s="5">
+        <v>35</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" customHeight="1" spans="2:5">
+      <c r="B40" s="5">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:5">
+      <c r="B41" s="5">
+        <v>37</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" ht="77" customHeight="1" spans="2:5">
+      <c r="B42" s="5">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" ht="96" customHeight="1" spans="2:5">
+      <c r="B43" s="5">
+        <v>39</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20565" windowHeight="11265" tabRatio="500"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018.1月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -267,6 +267,90 @@
   </si>
   <si>
     <t>目前弓箭的大小太小了，无法体现弓箭射击的主题</t>
+  </si>
+  <si>
+    <t>增加防护按钮或者防护装置</t>
+  </si>
+  <si>
+    <t>增加操作性，可玩性，减少死亡率</t>
+  </si>
+  <si>
+    <t>出箭按钮可以很小，但是范围必须很大</t>
+  </si>
+  <si>
+    <t>现在滑动有点出不来箭</t>
+  </si>
+  <si>
+    <t>有头盔的敌人</t>
+  </si>
+  <si>
+    <t>有头盔的敌人如果不好射击，可以按角度进行射击，无论如何现在也需要优化</t>
+  </si>
+  <si>
+    <t>飞行敌人</t>
+  </si>
+  <si>
+    <t>飞行敌人或者中立怪物在天上飞来飞去，击中或许会有意外收获，可以分颜色，也可以部分颜色</t>
+  </si>
+  <si>
+    <t>索敌技能</t>
+  </si>
+  <si>
+    <t>吃到索敌道具，可以自动攻击怪物数次，甚至于获得胜利，相当于一把钥匙</t>
+  </si>
+  <si>
+    <t>拉弓箭时，可以控制方向</t>
+  </si>
+  <si>
+    <t>或许取消方向键，用拉弓和方向结合才是正道</t>
+  </si>
+  <si>
+    <t>通过射程可以拓展玩法</t>
+  </si>
+  <si>
+    <t>有些物体是不可以攻击的，所以射程有时候也很重要，不太大，当然这些物体血量有时候不止一点，以便提供失误次数</t>
+  </si>
+  <si>
+    <t>反弹玩法</t>
+  </si>
+  <si>
+    <t>有些关卡是还有一些反弹物体的，可以折射弓箭，例如，通过击打旁边物体，可以折射到敌人</t>
+  </si>
+  <si>
+    <t>一些装置</t>
+  </si>
+  <si>
+    <t>有些装置，可以爆炸，有些击打到则可以分裂</t>
+  </si>
+  <si>
+    <t>力度有时候可以代表威力</t>
+  </si>
+  <si>
+    <t>力度越高，威力越高</t>
+  </si>
+  <si>
+    <t>力度可以控制减少偏移</t>
+  </si>
+  <si>
+    <t>那么爆头率也会增加等等</t>
+  </si>
+  <si>
+    <t>力度可以控制速度</t>
+  </si>
+  <si>
+    <t>力度控制距离速度</t>
+  </si>
+  <si>
+    <t>力度有时候是为了让玩家增加操作，瞄准时间</t>
+  </si>
+  <si>
+    <t>类似于盲狙，和瞄准狙击，可以参考《王者荣耀》的“百里守约”</t>
+  </si>
+  <si>
+    <t>真实射箭的感觉</t>
+  </si>
+  <si>
+    <t>无论是弓箭的射击下路还是物体打击感，尽量做出物理感觉</t>
   </si>
 </sst>
 </file>
@@ -275,9 +359,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -300,9 +384,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -312,36 +493,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,98 +525,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -487,31 +571,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,49 +661,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +691,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,79 +715,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,28 +774,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,20 +831,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,17 +861,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,138 +876,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1342,10 +1426,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E43"/>
+  <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
@@ -1778,16 +1862,16 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" ht="73" customHeight="1" spans="2:5">
-      <c r="B37" s="5">
+      <c r="B37" s="8">
         <v>33</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" ht="99" customHeight="1" spans="2:5">
       <c r="B38" s="5">
@@ -1860,6 +1944,174 @@
         <v>83</v>
       </c>
       <c r="E43" s="7"/>
+    </row>
+    <row r="44" customHeight="1" spans="2:5">
+      <c r="B44" s="5">
+        <v>40</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" ht="79" customHeight="1" spans="2:5">
+      <c r="B45" s="5">
+        <v>41</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" ht="93" customHeight="1" spans="2:5">
+      <c r="B46" s="5">
+        <v>42</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" ht="70" customHeight="1" spans="2:5">
+      <c r="B47" s="5">
+        <v>43</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" ht="72" customHeight="1" spans="2:5">
+      <c r="B48" s="5">
+        <v>44</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:5">
+      <c r="B49" s="5">
+        <v>45</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" ht="87" customHeight="1" spans="2:5">
+      <c r="B50" s="5">
+        <v>46</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" ht="75" customHeight="1" spans="2:5">
+      <c r="B51" s="5">
+        <v>47</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" ht="90" customHeight="1" spans="2:5">
+      <c r="B52" s="5">
+        <v>48</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" ht="79" customHeight="1" spans="2:5">
+      <c r="B53" s="5">
+        <v>49</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:5">
+      <c r="B54" s="5">
+        <v>50</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" ht="65" customHeight="1" spans="2:5">
+      <c r="B55" s="5">
+        <v>51</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" ht="66" customHeight="1" spans="2:5">
+      <c r="B56" s="5">
+        <v>52</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" ht="75" customHeight="1" spans="2:5">
+      <c r="B57" s="5">
+        <v>53</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -351,6 +351,24 @@
   </si>
   <si>
     <t>无论是弓箭的射击下路还是物体打击感，尽量做出物理感觉</t>
+  </si>
+  <si>
+    <t>做一个简单的养成系统</t>
+  </si>
+  <si>
+    <t>攻击树木可以获得木材，然后制作成箭，或者种树等等</t>
+  </si>
+  <si>
+    <t>箭的数量不是固定的</t>
+  </si>
+  <si>
+    <t>可以通过合成获得，每关或掉落一些材料可以合成弓箭，合成的颜色随自己而定</t>
+  </si>
+  <si>
+    <t>如果弓箭不够了</t>
+  </si>
+  <si>
+    <t>只能通过赠送或者养成，合成，然后体力是通过广告额外获得的，体力会自然增长，过关消耗一次</t>
   </si>
 </sst>
 </file>
@@ -360,8 +378,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -392,7 +410,103 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,37 +520,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,81 +549,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -571,103 +589,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,18 +745,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -715,37 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,9 +794,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,17 +869,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,184 +889,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1426,10 +1444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E57"/>
+  <dimension ref="B2:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
@@ -2113,6 +2131,42 @@
       </c>
       <c r="E57" s="7"/>
     </row>
+    <row r="58" ht="71" customHeight="1" spans="2:5">
+      <c r="B58" s="5">
+        <v>54</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:5">
+      <c r="B59" s="5">
+        <v>55</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" customHeight="1" spans="2:5">
+      <c r="B60" s="5">
+        <v>56</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -369,6 +369,18 @@
   </si>
   <si>
     <t>只能通过赠送或者养成，合成，然后体力是通过广告额外获得的，体力会自然增长，过关消耗一次</t>
+  </si>
+  <si>
+    <t>需要通过角度计算是否击中，因为当前帧位置可能在敌人和他的头盔中间或者更靠进头盔</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>地图不可射穿</t>
+  </si>
+  <si>
+    <t>弓箭射到地图上的某个半径内就停了，不会射穿地图</t>
   </si>
 </sst>
 </file>
@@ -376,10 +388,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -416,8 +428,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,6 +458,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -437,7 +488,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,9 +519,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,80 +549,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -589,13 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,133 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,25 +631,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,26 +804,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -832,6 +824,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,23 +896,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,142 +906,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,6 +1067,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1444,10 +1459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E60"/>
+  <dimension ref="B2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
@@ -2167,6 +2182,32 @@
       </c>
       <c r="E60" s="7"/>
     </row>
+    <row r="61" customHeight="1" spans="2:5">
+      <c r="B61" s="5">
+        <v>57</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:5">
+      <c r="B62" s="5">
+        <v>58</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -68,6 +68,9 @@
     <t>主角的攻击方式暂定，三种不同颜色攻击不同颜色的敌人</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>敌人的样式</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>子弹模式为固定模式，子弹自动旋转，对准则会攻击到目标，子弹打完则失败，每局子弹固定，否则很难控制失败</t>
   </si>
   <si>
+    <t>舍弃</t>
+  </si>
+  <si>
     <t>模式3，或者叫做解谜模式</t>
   </si>
   <si>
@@ -224,7 +230,7 @@
     <t>射击完毕回到原位，设计取消后也回到原位</t>
   </si>
   <si>
-    <t>这种方式，属于分解操作，一次一签的感觉，并且从某种意义上说简化和优化了操作难度，此时箭可以考虑不旋转</t>
+    <t>这种方式，属于分解操作，一次一箭的感觉，并且从某种意义上说简化和优化了操作难度，此时箭可以考虑不旋转</t>
   </si>
   <si>
     <t>Bug</t>
@@ -302,7 +308,7 @@
     <t>拉弓箭时，可以控制方向</t>
   </si>
   <si>
-    <t>或许取消方向键，用拉弓和方向结合才是正道</t>
+    <t>或许取消方向键，用拉弓和方向结合才是最佳方案</t>
   </si>
   <si>
     <t>通过射程可以拓展玩法</t>
@@ -374,13 +380,64 @@
     <t>需要通过角度计算是否击中，因为当前帧位置可能在敌人和他的头盔中间或者更靠进头盔</t>
   </si>
   <si>
-    <t>完成</t>
-  </si>
-  <si>
     <t>地图不可射穿</t>
   </si>
   <si>
     <t>弓箭射到地图上的某个半径内就停了，不会射穿地图</t>
+  </si>
+  <si>
+    <t>女主角被困牢笼的表现</t>
+  </si>
+  <si>
+    <t>设计一个牢笼等围困物体</t>
+  </si>
+  <si>
+    <t>取消攻击优化</t>
+  </si>
+  <si>
+    <t>当收的位置高于弓箭100时则弓箭自动出去，然后抬起便销毁了，移除取消按钮</t>
+  </si>
+  <si>
+    <t>弓箭收起可以取出动画</t>
+  </si>
+  <si>
+    <t>没有取箭的时候，弓箭是背在身上的，取箭的时候，弓箭是放在头上的，并且有动画</t>
+  </si>
+  <si>
+    <t>每关有个小boss</t>
+  </si>
+  <si>
+    <t>移动特别快，或者会放很多子弹，有时候也需要打完其他怪物才能打小boss，或者防御特别高</t>
+  </si>
+  <si>
+    <t>增加横风影响</t>
+  </si>
+  <si>
+    <t>提高射击难度</t>
+  </si>
+  <si>
+    <t>增加拖宽地图</t>
+  </si>
+  <si>
+    <t>屏幕很大，可以移动更大范围，射击时便可缩小地图，看到全部场景，上下左右皆增大，而且不只有一个球，还有可能有各种敌人</t>
+  </si>
+  <si>
+    <t>射箭拖尾效果</t>
+  </si>
+  <si>
+    <t>越高级的箭，拖尾越厉害</t>
+  </si>
+  <si>
+    <t>地图加宽后假设</t>
+  </si>
+  <si>
+    <t>一个地图上很多敌人，我们在地图上移动，并且会遇到各种奇怪的敌人和事件，假设每关有3把钥匙，只有拿到这三把钥匙才能营救女主然后通关</t>
+  </si>
+  <si>
+    <t>通过数据表配置关卡</t>
+  </si>
+  <si>
+    <t>可以随机也可以规定好</t>
   </si>
 </sst>
 </file>
@@ -415,7 +472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +487,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,17 +513,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,21 +522,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,6 +542,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -519,9 +559,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,21 +588,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,13 +652,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,13 +688,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,31 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,115 +808,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,16 +874,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,26 +893,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,21 +927,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -901,147 +935,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,7 +1138,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1459,10 +1531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E62"/>
+  <dimension ref="B2:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
@@ -1510,7 +1582,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="80" customHeight="1" spans="2:5">
+    <row r="5" ht="45" customHeight="1" spans="2:5">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1522,7 +1594,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="95" customHeight="1" spans="2:5">
+    <row r="6" ht="47" customHeight="1" spans="2:5">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -1534,7 +1606,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="96" customHeight="1" spans="2:5">
+    <row r="7" ht="52" customHeight="1" spans="2:5">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -1546,7 +1618,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="110" customHeight="1" spans="2:5">
+    <row r="8" ht="68" customHeight="1" spans="2:5">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -1558,7 +1630,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" ht="87" customHeight="1" spans="2:5">
+    <row r="9" ht="60" customHeight="1" spans="2:5">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -1568,17 +1640,19 @@
       <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="80" customHeight="1" spans="2:5">
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="63" customHeight="1" spans="2:5">
       <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -1587,22 +1661,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" ht="110" customHeight="1" spans="2:5">
+    <row r="12" ht="90" customHeight="1" spans="2:5">
       <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -1611,22 +1685,24 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" ht="162" customHeight="1" spans="2:5">
       <c r="B14" s="5">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1635,22 +1711,24 @@
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" ht="88" customHeight="1" spans="2:5">
       <c r="B16" s="5">
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -1659,10 +1737,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -1671,10 +1749,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1683,10 +1761,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1695,10 +1773,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -1707,22 +1785,24 @@
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" ht="84" customHeight="1" spans="2:5">
       <c r="B22" s="5">
         <v>19</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="7"/>
     </row>
@@ -1731,22 +1811,24 @@
         <v>20</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" customHeight="1" spans="2:5">
       <c r="B24" s="5">
         <v>21</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" s="7"/>
     </row>
@@ -1755,10 +1837,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25" s="7"/>
     </row>
@@ -1767,71 +1849,75 @@
         <v>23</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" customHeight="1" spans="2:5">
       <c r="B27" s="5">
         <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" ht="108" customHeight="1" spans="2:5">
-      <c r="B28" s="8">
+      <c r="B28" s="10">
         <v>24</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="8"/>
+      <c r="C28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" ht="71" customHeight="1" spans="2:5">
       <c r="B29" s="5">
         <v>25</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" ht="88" customHeight="1" spans="2:5">
-      <c r="B30" s="8">
+      <c r="B30" s="10">
         <v>26</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" ht="92" customHeight="1" spans="2:5">
       <c r="B31" s="5">
         <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="130" customHeight="1" spans="2:5">
@@ -1839,10 +1925,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="7"/>
     </row>
@@ -1851,10 +1937,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E33" s="7"/>
     </row>
@@ -1863,58 +1949,60 @@
         <v>30</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" ht="93" customHeight="1" spans="2:5">
-      <c r="B35" s="8">
+      <c r="B35" s="10">
         <v>31</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="8"/>
+      <c r="C35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" ht="93" customHeight="1" spans="2:5">
       <c r="B36" s="5">
         <v>32</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" ht="73" customHeight="1" spans="2:5">
-      <c r="B37" s="8">
+      <c r="B37" s="10">
         <v>33</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="8"/>
+      <c r="C37" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" ht="99" customHeight="1" spans="2:5">
       <c r="B38" s="5">
         <v>34</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" s="7"/>
     </row>
@@ -1923,22 +2011,24 @@
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="40" customHeight="1" spans="2:5">
       <c r="B40" s="5">
         <v>36</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="7"/>
     </row>
@@ -1947,34 +2037,38 @@
         <v>37</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="42" ht="77" customHeight="1" spans="2:5">
       <c r="B42" s="5">
         <v>38</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="43" ht="96" customHeight="1" spans="2:5">
       <c r="B43" s="5">
         <v>39</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="7"/>
     </row>
@@ -1983,10 +2077,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="7"/>
     </row>
@@ -1995,34 +2089,38 @@
         <v>41</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="46" ht="93" customHeight="1" spans="2:5">
       <c r="B46" s="5">
         <v>42</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="47" ht="70" customHeight="1" spans="2:5">
       <c r="B47" s="5">
         <v>43</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="7"/>
     </row>
@@ -2031,10 +2129,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="7"/>
     </row>
@@ -2043,22 +2141,24 @@
         <v>45</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="50" ht="87" customHeight="1" spans="2:5">
       <c r="B50" s="5">
         <v>46</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="7"/>
     </row>
@@ -2067,10 +2167,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="7"/>
     </row>
@@ -2079,10 +2179,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -2091,10 +2191,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="7"/>
     </row>
@@ -2103,10 +2203,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" s="7"/>
     </row>
@@ -2115,22 +2215,24 @@
         <v>51</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" ht="66" customHeight="1" spans="2:5">
       <c r="B56" s="5">
         <v>52</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" s="7"/>
     </row>
@@ -2139,10 +2241,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E57" s="7"/>
     </row>
@@ -2151,10 +2253,10 @@
         <v>54</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E58" s="7"/>
     </row>
@@ -2163,10 +2265,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E59" s="7"/>
     </row>
@@ -2175,10 +2277,10 @@
         <v>56</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60" s="7"/>
     </row>
@@ -2187,13 +2289,13 @@
         <v>57</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:5">
@@ -2201,12 +2303,120 @@
         <v>58</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E62" s="7"/>
+    </row>
+    <row r="63" customHeight="1" spans="2:5">
+      <c r="B63" s="5">
+        <v>59</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:5">
+      <c r="B64" s="5">
+        <v>60</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" customHeight="1" spans="2:5">
+      <c r="B65" s="5">
+        <v>61</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" customHeight="1" spans="2:5">
+      <c r="B66" s="5">
+        <v>62</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" customHeight="1" spans="2:5">
+      <c r="B67" s="5">
+        <v>63</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" ht="71" customHeight="1" spans="2:5">
+      <c r="B68" s="5">
+        <v>64</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" customHeight="1" spans="2:5">
+      <c r="B69" s="5">
+        <v>65</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" ht="94" customHeight="1" spans="2:5">
+      <c r="B70" s="5">
+        <v>66</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" ht="85" customHeight="1" spans="2:5">
+      <c r="B71" s="5">
+        <v>66</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="143">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>可以随机也可以规定好</t>
+  </si>
+  <si>
+    <t>增加以过渡螺栓控制取消和上弓</t>
+  </si>
+  <si>
+    <t>一旦进入弓箭时，超出范围离开弓箭时，需要多移动一段距离，否则介于两者之间会不断跳跃</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -471,8 +477,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,9 +496,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,37 +610,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,76 +624,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -670,103 +676,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,13 +712,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,25 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,17 +879,61 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,61 +962,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,138 +981,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,10 +1537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E71"/>
+  <dimension ref="B2:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
@@ -2418,6 +2424,18 @@
       </c>
       <c r="E71" s="7"/>
     </row>
+    <row r="72" customHeight="1" spans="2:5">
+      <c r="B72" s="5">
+        <v>67</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -444,6 +444,18 @@
   </si>
   <si>
     <t>一旦进入弓箭时，超出范围离开弓箭时，需要多移动一段距离，否则介于两者之间会不断跳跃</t>
+  </si>
+  <si>
+    <t>以现在的移动方式如果出现天空飞翔的物体</t>
+  </si>
+  <si>
+    <t>除了主角以外，其他物体都放进一个父节点上，然后进行移动，这样无需单个移动</t>
+  </si>
+  <si>
+    <t>弓箭射到地面上时的动画</t>
+  </si>
+  <si>
+    <t>弓箭射到地面上可以给与一个挤压回弹效果，弓箭射到地面的效果也很关键</t>
   </si>
 </sst>
 </file>
@@ -451,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -477,18 +489,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -497,93 +497,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,9 +526,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,31 +688,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,139 +808,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,15 +891,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -899,6 +902,63 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,15 +980,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -937,182 +988,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1537,19 +1549,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E72"/>
+  <dimension ref="B2:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.425" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3833333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.6333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="65.4333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="42" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="71.9583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
     <col min="6" max="1024" width="9" style="2" customWidth="1"/>
     <col min="1025" max="16384" width="9" style="2"/>
   </cols>
@@ -2434,7 +2446,33 @@
       <c r="D72" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E72" s="7"/>
+      <c r="E72" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" ht="78" customHeight="1" spans="2:5">
+      <c r="B73" s="5">
+        <v>68</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" ht="84" customHeight="1" spans="2:5">
+      <c r="B74" s="5">
+        <v>69</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>弓箭射到地面上可以给与一个挤压回弹效果，弓箭射到地面的效果也很关键</t>
+  </si>
+  <si>
+    <t>boss的技能</t>
+  </si>
+  <si>
+    <t>boss的技能单独一个类，技能花样根据数据表名称设定</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -489,23 +495,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,74 +511,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,7 +532,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,16 +583,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,6 +635,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -688,7 +694,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,49 +766,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,25 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +808,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,49 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,6 +897,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -902,15 +937,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,11 +956,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,169 +994,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1549,10 +1555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E74"/>
+  <dimension ref="B2:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
@@ -2474,6 +2480,30 @@
       </c>
       <c r="E74" s="7"/>
     </row>
+    <row r="75" customHeight="1" spans="2:5">
+      <c r="B75" s="5">
+        <v>70</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" customHeight="1" spans="2:5">
+      <c r="B76" s="5">
+        <v>71</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="159">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -462,6 +462,36 @@
   </si>
   <si>
     <t>boss的技能单独一个类，技能花样根据数据表名称设定</t>
+  </si>
+  <si>
+    <t>尝试一剑射击多个目标</t>
+  </si>
+  <si>
+    <t>一箭双雕，或者是穿透箭</t>
+  </si>
+  <si>
+    <t>尝试改变玩法，滑动射击，自动变色</t>
+  </si>
+  <si>
+    <t>每划一次则自动变色，进行下一次攻击，目前有两种射击位置变化，一次是滑动后的位置，一次是滑动前的位置，暂无法判断其中的好坏</t>
+  </si>
+  <si>
+    <t>暂时摒弃颜色</t>
+  </si>
+  <si>
+    <t>为了更畅快的射击，暂时舍弃颜色设定</t>
+  </si>
+  <si>
+    <t>如果保留颜色</t>
+  </si>
+  <si>
+    <t>如果保留颜色的话，玩家如果原地点击的话，则颜色不变，否则无法持续攻击同一个目标</t>
+  </si>
+  <si>
+    <t>新玩法攻速</t>
+  </si>
+  <si>
+    <t>新玩法箭的移动速度可以培养</t>
   </si>
 </sst>
 </file>
@@ -469,9 +499,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -495,6 +525,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,16 +575,19 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -524,7 +598,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,45 +613,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,21 +636,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,6 +650,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -621,25 +666,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -694,13 +724,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,91 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,67 +760,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,6 +927,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -911,32 +971,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,17 +992,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,152 +1024,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1555,10 +1585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E76"/>
+  <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
@@ -2504,6 +2534,66 @@
       </c>
       <c r="E76" s="7"/>
     </row>
+    <row r="77" customHeight="1" spans="2:5">
+      <c r="B77" s="5">
+        <v>72</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" ht="72" customHeight="1" spans="2:5">
+      <c r="B78" s="5">
+        <v>73</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" ht="84" customHeight="1" spans="2:5">
+      <c r="B79" s="5">
+        <v>74</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" customHeight="1" spans="2:5">
+      <c r="B80" s="5">
+        <v>75</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" customHeight="1" spans="2:5">
+      <c r="B81" s="5">
+        <v>76</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
+    <workbookView windowWidth="21045" windowHeight="11985" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018.1月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="178">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -492,6 +492,63 @@
   </si>
   <si>
     <t>新玩法箭的移动速度可以培养</t>
+  </si>
+  <si>
+    <t>怪物的颜色</t>
+  </si>
+  <si>
+    <t>怪物颜色依然是好几种，否则可能没那么多的设计</t>
+  </si>
+  <si>
+    <t>地图可以缩小</t>
+  </si>
+  <si>
+    <t>目前地图可以缩小一些，反正是胡乱射击</t>
+  </si>
+  <si>
+    <t>无效弓箭数量限制</t>
+  </si>
+  <si>
+    <t>插在地面上的弓箭会有数量限制</t>
+  </si>
+  <si>
+    <t>某些敌人的位置</t>
+  </si>
+  <si>
+    <t>某些敌人可能不会一直组转圈，可能会在某个角度区间移动，很难击中。</t>
+  </si>
+  <si>
+    <t>颜色匹配的其他玩法</t>
+  </si>
+  <si>
+    <t>弱化颜色概念，但是如果颜色匹配的话，可以增加金币</t>
+  </si>
+  <si>
+    <t>敌人的出现方法优化</t>
+  </si>
+  <si>
+    <t>敌人有时候太多，设置一个房间，从房间里面出来，或者从树后面不断的出来</t>
+  </si>
+  <si>
+    <t>怪物出现的房间</t>
+  </si>
+  <si>
+    <t>有一个房间，会接连不断的出现怪物，玩家可能需要先打掉这个房间，这样中断怪物的出现</t>
+  </si>
+  <si>
+    <t>主角要重新写个类</t>
+  </si>
+  <si>
+    <t>主角内容比较多</t>
+  </si>
+  <si>
+    <t>boss的结构可以尝试新的设计模式</t>
+  </si>
+  <si>
+    <t>主要用于组合boss的技能</t>
+  </si>
+  <si>
+    <t>将武器和敌人，boss分开写</t>
   </si>
 </sst>
 </file>
@@ -500,8 +557,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -526,6 +583,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -533,30 +597,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -574,17 +638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,8 +652,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,7 +678,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,7 +700,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,34 +714,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -724,31 +781,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,145 +943,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,6 +984,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -938,6 +1030,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,26 +1067,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -991,176 +1081,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,1018 +1642,1137 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E81"/>
+  <dimension ref="A2:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="42" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="71.9583333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="2" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.9583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
+    <col min="5" max="1023" width="9" style="2" customWidth="1"/>
+    <col min="1024" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="2:5">
-      <c r="B2" s="3" t="s">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="2:5">
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="71" customHeight="1" spans="1:4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="1:4">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" ht="47" customHeight="1" spans="1:4">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" ht="52" customHeight="1" spans="1:4">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="71" customHeight="1" spans="2:5">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" ht="68" customHeight="1" spans="1:4">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" ht="60" customHeight="1" spans="1:4">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" ht="45" customHeight="1" spans="2:5">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="63" customHeight="1" spans="1:4">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" ht="73" customHeight="1" spans="1:4">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" ht="47" customHeight="1" spans="2:5">
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" ht="90" customHeight="1" spans="1:4">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" ht="80" customHeight="1" spans="1:4">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" ht="52" customHeight="1" spans="2:5">
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="162" customHeight="1" spans="1:4">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" ht="116" customHeight="1" spans="1:4">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" ht="68" customHeight="1" spans="2:5">
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="88" customHeight="1" spans="1:4">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" ht="105" customHeight="1" spans="1:4">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" ht="60" customHeight="1" spans="2:5">
-      <c r="B9" s="5">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" ht="88" customHeight="1" spans="1:4">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" ht="90" customHeight="1" spans="1:4">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" ht="95" customHeight="1" spans="1:4">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" ht="63" customHeight="1" spans="2:5">
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" ht="86" customHeight="1" spans="1:4">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="84" customHeight="1" spans="1:4">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" ht="73" customHeight="1" spans="2:5">
-      <c r="B11" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" ht="94" customHeight="1" spans="1:4">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" ht="90" customHeight="1" spans="2:5">
-      <c r="B12" s="5">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" ht="85" customHeight="1" spans="1:4">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" ht="80" customHeight="1" spans="2:5">
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="108" customHeight="1" spans="1:4">
+      <c r="A28" s="10">
+        <v>24</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" ht="71" customHeight="1" spans="1:4">
+      <c r="A29" s="5">
         <v>25</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" ht="88" customHeight="1" spans="1:4">
+      <c r="A30" s="10">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" ht="162" customHeight="1" spans="2:5">
-      <c r="B14" s="5">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" ht="92" customHeight="1" spans="1:4">
+      <c r="A31" s="5">
         <v>27</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="B31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="130" customHeight="1" spans="1:4">
+      <c r="A32" s="5">
         <v>28</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" ht="116" customHeight="1" spans="2:5">
-      <c r="B15" s="5">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" ht="123" customHeight="1" spans="1:4">
+      <c r="A33" s="5">
         <v>29</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="B33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" ht="103" customHeight="1" spans="1:4">
+      <c r="A34" s="5">
         <v>30</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" ht="88" customHeight="1" spans="2:5">
-      <c r="B16" s="5">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" ht="93" customHeight="1" spans="1:4">
+      <c r="A35" s="10">
         <v>31</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="B35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" ht="93" customHeight="1" spans="1:4">
+      <c r="A36" s="5">
         <v>32</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" ht="105" customHeight="1" spans="2:5">
-      <c r="B17" s="5">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" ht="73" customHeight="1" spans="1:4">
+      <c r="A37" s="10">
         <v>33</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="B37" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" ht="99" customHeight="1" spans="1:4">
+      <c r="A38" s="5">
         <v>34</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" ht="88" customHeight="1" spans="2:5">
-      <c r="B18" s="5">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="5">
         <v>35</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="B39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="5">
         <v>36</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" ht="90" customHeight="1" spans="2:5">
-      <c r="B19" s="5">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="5">
         <v>37</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="B41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" ht="77" customHeight="1" spans="1:4">
+      <c r="A42" s="5">
         <v>38</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" ht="95" customHeight="1" spans="2:5">
-      <c r="B20" s="5">
+      <c r="B42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6" t="s">
+    </row>
+    <row r="43" ht="96" customHeight="1" spans="1:4">
+      <c r="A43" s="5">
         <v>39</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="B43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="5">
         <v>40</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" ht="86" customHeight="1" spans="2:5">
-      <c r="B21" s="5">
-        <v>18</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B44" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" ht="79" customHeight="1" spans="1:4">
+      <c r="A45" s="5">
         <v>41</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="B45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" ht="93" customHeight="1" spans="1:4">
+      <c r="A46" s="5">
         <v>42</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" ht="84" customHeight="1" spans="2:5">
-      <c r="B22" s="5">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" ht="70" customHeight="1" spans="1:4">
+      <c r="A47" s="5">
         <v>43</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="B47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" ht="72" customHeight="1" spans="1:4">
+      <c r="A48" s="5">
         <v>44</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" ht="94" customHeight="1" spans="2:5">
-      <c r="B23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B48" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="5">
         <v>45</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="B49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" ht="87" customHeight="1" spans="1:4">
+      <c r="A50" s="5">
         <v>46</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="B50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" ht="75" customHeight="1" spans="1:4">
+      <c r="A51" s="5">
+        <v>47</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" ht="90" customHeight="1" spans="1:4">
+      <c r="A52" s="5">
+        <v>48</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" ht="79" customHeight="1" spans="1:4">
+      <c r="A53" s="5">
+        <v>49</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:4">
+      <c r="A54" s="5">
+        <v>50</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" ht="65" customHeight="1" spans="1:4">
+      <c r="A55" s="5">
+        <v>51</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="2:5">
-      <c r="B24" s="5">
-        <v>21</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" ht="85" customHeight="1" spans="2:5">
-      <c r="B25" s="5">
-        <v>22</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:5">
-      <c r="B26" s="5">
-        <v>23</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="7" t="s">
+    <row r="56" ht="66" customHeight="1" spans="1:4">
+      <c r="A56" s="5">
         <v>52</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="B56" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" ht="75" customHeight="1" spans="1:4">
+      <c r="A57" s="5">
+        <v>53</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" ht="71" customHeight="1" spans="1:4">
+      <c r="A58" s="5">
+        <v>54</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:4">
+      <c r="A59" s="5">
+        <v>55</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:4">
+      <c r="A60" s="5">
+        <v>56</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
+      <c r="A61" s="5">
+        <v>57</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="2:5">
-      <c r="B27" s="5">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="8" t="s">
+    <row r="62" customHeight="1" spans="1:4">
+      <c r="A62" s="5">
+        <v>58</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:4">
+      <c r="A63" s="5">
+        <v>59</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:4">
+      <c r="A64" s="5">
+        <v>60</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:4">
+      <c r="A65" s="5">
+        <v>61</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:4">
+      <c r="A66" s="5">
+        <v>62</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:4">
+      <c r="A67" s="5">
+        <v>63</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" ht="71" customHeight="1" spans="1:4">
+      <c r="A68" s="5">
+        <v>64</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:4">
+      <c r="A69" s="5">
+        <v>65</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" ht="94" customHeight="1" spans="1:4">
+      <c r="A70" s="5">
+        <v>66</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" ht="85" customHeight="1" spans="1:4">
+      <c r="A71" s="5">
+        <v>66</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:4">
+      <c r="A72" s="5">
+        <v>67</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" ht="108" customHeight="1" spans="2:5">
-      <c r="B28" s="10">
-        <v>24</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" ht="71" customHeight="1" spans="2:5">
-      <c r="B29" s="5">
-        <v>25</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" ht="88" customHeight="1" spans="2:5">
-      <c r="B30" s="10">
-        <v>26</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" ht="92" customHeight="1" spans="2:5">
-      <c r="B31" s="5">
-        <v>27</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" ht="130" customHeight="1" spans="2:5">
-      <c r="B32" s="5">
-        <v>28</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" ht="123" customHeight="1" spans="2:5">
-      <c r="B33" s="5">
-        <v>29</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" ht="103" customHeight="1" spans="2:5">
-      <c r="B34" s="5">
-        <v>30</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" ht="93" customHeight="1" spans="2:5">
-      <c r="B35" s="10">
-        <v>31</v>
-      </c>
-      <c r="C35" s="10" t="s">
+    <row r="73" ht="78" customHeight="1" spans="1:4">
+      <c r="A73" s="5">
         <v>68</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="B73" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" ht="84" customHeight="1" spans="1:4">
+      <c r="A74" s="5">
         <v>69</v>
       </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" ht="93" customHeight="1" spans="2:5">
-      <c r="B36" s="5">
-        <v>32</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:4">
+      <c r="A75" s="5">
         <v>70</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="B75" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:4">
+      <c r="A76" s="5">
         <v>71</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" ht="73" customHeight="1" spans="2:5">
-      <c r="B37" s="10">
-        <v>33</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="B76" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:4">
+      <c r="A77" s="5">
         <v>72</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="B77" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" ht="72" customHeight="1" spans="1:4">
+      <c r="A78" s="5">
         <v>73</v>
       </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" ht="99" customHeight="1" spans="2:5">
-      <c r="B38" s="5">
-        <v>34</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B78" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" ht="84" customHeight="1" spans="1:4">
+      <c r="A79" s="5">
         <v>74</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="B79" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:4">
+      <c r="A80" s="5">
         <v>75</v>
       </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" customHeight="1" spans="2:5">
-      <c r="B39" s="5">
-        <v>35</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B80" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:4">
+      <c r="A81" s="5">
         <v>76</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="B81" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" ht="66" customHeight="1" spans="1:4">
+      <c r="A82" s="5">
         <v>77</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:5">
-      <c r="B40" s="5">
-        <v>36</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B82" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:4">
+      <c r="A83" s="5">
         <v>78</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="B83" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:4">
+      <c r="A84" s="5">
         <v>79</v>
       </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" customHeight="1" spans="2:5">
-      <c r="B41" s="5">
-        <v>37</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B84" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:4">
+      <c r="A85" s="5">
         <v>80</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="B85" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:4">
+      <c r="A86" s="5">
         <v>81</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" ht="77" customHeight="1" spans="2:5">
-      <c r="B42" s="5">
-        <v>38</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B86" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:4">
+      <c r="A87" s="5">
         <v>82</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="B87" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:4">
+      <c r="A88" s="5">
         <v>83</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" ht="96" customHeight="1" spans="2:5">
-      <c r="B43" s="5">
-        <v>39</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B88" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:4">
+      <c r="A89" s="5">
         <v>84</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="B89" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:4">
+      <c r="A90" s="5">
         <v>85</v>
       </c>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" customHeight="1" spans="2:5">
-      <c r="B44" s="5">
-        <v>40</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B90" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:4">
+      <c r="A91" s="5">
         <v>86</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" ht="79" customHeight="1" spans="2:5">
-      <c r="B45" s="5">
-        <v>41</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" ht="93" customHeight="1" spans="2:5">
-      <c r="B46" s="5">
-        <v>42</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" ht="70" customHeight="1" spans="2:5">
-      <c r="B47" s="5">
-        <v>43</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" ht="72" customHeight="1" spans="2:5">
-      <c r="B48" s="5">
-        <v>44</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" customHeight="1" spans="2:5">
-      <c r="B49" s="5">
-        <v>45</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" ht="87" customHeight="1" spans="2:5">
-      <c r="B50" s="5">
-        <v>46</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" ht="75" customHeight="1" spans="2:5">
-      <c r="B51" s="5">
-        <v>47</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" ht="90" customHeight="1" spans="2:5">
-      <c r="B52" s="5">
-        <v>48</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" ht="79" customHeight="1" spans="2:5">
-      <c r="B53" s="5">
-        <v>49</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" customHeight="1" spans="2:5">
-      <c r="B54" s="5">
-        <v>50</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" ht="65" customHeight="1" spans="2:5">
-      <c r="B55" s="5">
-        <v>51</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" ht="66" customHeight="1" spans="2:5">
-      <c r="B56" s="5">
-        <v>52</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" ht="75" customHeight="1" spans="2:5">
-      <c r="B57" s="5">
-        <v>53</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" ht="71" customHeight="1" spans="2:5">
-      <c r="B58" s="5">
-        <v>54</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" customHeight="1" spans="2:5">
-      <c r="B59" s="5">
-        <v>55</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" customHeight="1" spans="2:5">
-      <c r="B60" s="5">
-        <v>56</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" customHeight="1" spans="2:5">
-      <c r="B61" s="5">
-        <v>57</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="2:5">
-      <c r="B62" s="5">
-        <v>58</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" customHeight="1" spans="2:5">
-      <c r="B63" s="5">
-        <v>59</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" customHeight="1" spans="2:5">
-      <c r="B64" s="5">
-        <v>60</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" customHeight="1" spans="2:5">
-      <c r="B65" s="5">
-        <v>61</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" customHeight="1" spans="2:5">
-      <c r="B66" s="5">
-        <v>62</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" customHeight="1" spans="2:5">
-      <c r="B67" s="5">
-        <v>63</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" ht="71" customHeight="1" spans="2:5">
-      <c r="B68" s="5">
-        <v>64</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" customHeight="1" spans="2:5">
-      <c r="B69" s="5">
-        <v>65</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" ht="94" customHeight="1" spans="2:5">
-      <c r="B70" s="5">
-        <v>66</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" ht="85" customHeight="1" spans="2:5">
-      <c r="B71" s="5">
-        <v>66</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" customHeight="1" spans="2:5">
-      <c r="B72" s="5">
-        <v>67</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" ht="78" customHeight="1" spans="2:5">
-      <c r="B73" s="5">
-        <v>68</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" ht="84" customHeight="1" spans="2:5">
-      <c r="B74" s="5">
-        <v>69</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" customHeight="1" spans="2:5">
-      <c r="B75" s="5">
-        <v>70</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" customHeight="1" spans="2:5">
-      <c r="B76" s="5">
-        <v>71</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" customHeight="1" spans="2:5">
-      <c r="B77" s="5">
-        <v>72</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" ht="72" customHeight="1" spans="2:5">
-      <c r="B78" s="5">
-        <v>73</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" ht="84" customHeight="1" spans="2:5">
-      <c r="B79" s="5">
-        <v>74</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" customHeight="1" spans="2:5">
-      <c r="B80" s="5">
-        <v>75</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" customHeight="1" spans="2:5">
-      <c r="B81" s="5">
-        <v>76</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E81" s="7"/>
+      <c r="B91" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="194">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -549,6 +549,54 @@
   </si>
   <si>
     <t>将武器和敌人，boss分开写</t>
+  </si>
+  <si>
+    <t>如果箭不消失</t>
+  </si>
+  <si>
+    <t>如果箭不消失的话，每个物体最后那些贴图必须销毁，根据内存而定使不适用</t>
+  </si>
+  <si>
+    <t>不宜使用骨骼动画</t>
+  </si>
+  <si>
+    <t>当前模式子弹应该会很多，那么为了减少压力，利用图片简单运动即可</t>
+  </si>
+  <si>
+    <t>角色不易太复杂</t>
+  </si>
+  <si>
+    <t>最多加上收即可</t>
+  </si>
+  <si>
+    <t>角色当前可以用圆柱等形状替代</t>
+  </si>
+  <si>
+    <t>主打表情，简化后，子弹才能花哨，否则必卡</t>
+  </si>
+  <si>
+    <t>boss来袭</t>
+  </si>
+  <si>
+    <t>出现boss，boss的技能非常的花哨，并且陆地消失，变成真正的射击游戏，这样有两个好处，1.增加了一个节奏点；第二增加了玩家为啥要攻击树木等，拿到最强的buff，才能几百boss，否则可能打不过boss</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>buff由地面上的物体产生，类型包括血量，弹幕等基本功能</t>
+  </si>
+  <si>
+    <t>整个节奏逻辑</t>
+  </si>
+  <si>
+    <t>节奏上面，可以定义为，敌人小兵主要是为了阻止玩家打掉书上的buff，我们的目的是打掉buff，然后打boss，所以小兵身上可以没有boff只有金币</t>
+  </si>
+  <si>
+    <t>内存</t>
+  </si>
+  <si>
+    <t>控制子弹的数量方可控制内存</t>
   </si>
 </sst>
 </file>
@@ -557,8 +605,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -583,63 +631,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,6 +642,18 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -676,9 +680,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,16 +754,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,13 +829,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,36 +973,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -836,102 +980,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,19 +991,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,6 +1028,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,54 +1116,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1086,138 +1134,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1642,10 +1690,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D91"/>
+  <dimension ref="A2:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2770,6 +2818,102 @@
       </c>
       <c r="D91" s="7"/>
     </row>
+    <row r="92" customHeight="1" spans="1:4">
+      <c r="A92" s="5">
+        <v>87</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" ht="72" customHeight="1" spans="1:4">
+      <c r="A93" s="5">
+        <v>88</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:4">
+      <c r="A94" s="5">
+        <v>89</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:4">
+      <c r="A95" s="5">
+        <v>90</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" ht="89" customHeight="1" spans="1:4">
+      <c r="A96" s="5">
+        <v>91</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" ht="106" customHeight="1" spans="1:4">
+      <c r="A97" s="5">
+        <v>92</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" ht="83" customHeight="1" spans="1:4">
+      <c r="A98" s="5">
+        <v>93</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" ht="70" customHeight="1" spans="1:4">
+      <c r="A99" s="5">
+        <v>94</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D99" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="198">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -597,6 +597,18 @@
   </si>
   <si>
     <t>控制子弹的数量方可控制内存</t>
+  </si>
+  <si>
+    <t>见缝插针表现1</t>
+  </si>
+  <si>
+    <t>如果一次性把小怪打完，那么可能没有buff打boss，所以这也符合见缝插针中的选择性射击原则</t>
+  </si>
+  <si>
+    <t>有buff的物体</t>
+  </si>
+  <si>
+    <t>有buff的物体，在敌人的前面，优先阻挡敌人攻击，但是这些物体恰好也是我们攻击的对象，既然是攻击对象，最好还是做出一些设计上的区别，敌人后方的植物不会有buff，例如后面的树</t>
   </si>
 </sst>
 </file>
@@ -609,7 +621,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -626,6 +638,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1134,142 +1152,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1301,6 +1319,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1690,10 +1711,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D99"/>
+  <dimension ref="A2:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2914,6 +2935,30 @@
       </c>
       <c r="D99" s="7"/>
     </row>
+    <row r="100" ht="63" customHeight="1" spans="1:4">
+      <c r="A100" s="5">
+        <v>95</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" ht="79" customHeight="1" spans="1:4">
+      <c r="A101" s="5">
+        <v>96</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="202">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -609,6 +609,18 @@
   </si>
   <si>
     <t>有buff的物体，在敌人的前面，优先阻挡敌人攻击，但是这些物体恰好也是我们攻击的对象，既然是攻击对象，最好还是做出一些设计上的区别，敌人后方的植物不会有buff，例如后面的树</t>
+  </si>
+  <si>
+    <t>箭绘制的频率</t>
+  </si>
+  <si>
+    <t>目前绘制的频率过高，有些许卡顿，可以降低一下频率</t>
+  </si>
+  <si>
+    <t>武器新设想</t>
+  </si>
+  <si>
+    <t>为了节约美术成本和表现，可以用弓箭插在头上，或者是头发，闪电等作为射击起点</t>
   </si>
 </sst>
 </file>
@@ -618,8 +630,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -648,8 +660,80 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,22 +747,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,36 +772,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,46 +792,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,151 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,19 +877,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,39 +1058,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,16 +1087,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,6 +1117,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,138 +1164,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1711,10 +1723,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D101"/>
+  <dimension ref="A2:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2959,6 +2971,30 @@
       </c>
       <c r="D101" s="7"/>
     </row>
+    <row r="102" ht="74" customHeight="1" spans="1:4">
+      <c r="A102" s="5">
+        <v>97</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:4">
+      <c r="A103" s="5">
+        <v>98</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="210">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -621,6 +621,30 @@
   </si>
   <si>
     <t>为了节约美术成本和表现，可以用弓箭插在头上，或者是头发，闪电等作为射击起点</t>
+  </si>
+  <si>
+    <t>主角的弹幕表现</t>
+  </si>
+  <si>
+    <t>弹幕是本游戏主要特色，废除传统直上弹幕，主角弹幕也是花哨的</t>
+  </si>
+  <si>
+    <t>在地图上做功夫</t>
+  </si>
+  <si>
+    <t>尽量让我们多打一些东西，不要射空</t>
+  </si>
+  <si>
+    <t>关于boss</t>
+  </si>
+  <si>
+    <t>boss最后在房屋处出现，操控整个陆地，然后发射子弹，此时陆地可以攻击，攻击完毕后，boss可以攻击，可以分这两个阶段，给予两个弹幕表现，这样也增加了一个节奏和玩点</t>
+  </si>
+  <si>
+    <t>boss弹幕1</t>
+  </si>
+  <si>
+    <t>在玩家移动区域内，提示，然后爆炸出子弹</t>
   </si>
 </sst>
 </file>
@@ -628,10 +652,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -660,11 +684,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -672,39 +691,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,29 +720,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,17 +740,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,7 +772,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,7 +780,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,13 +883,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,43 +1027,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,115 +1051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,6 +1086,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1081,7 +1155,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,193 +1183,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1723,10 +1747,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D103"/>
+  <dimension ref="A2:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2983,7 +3007,7 @@
       </c>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" customHeight="1" spans="1:4">
+    <row r="103" ht="99" customHeight="1" spans="1:4">
       <c r="A103" s="5">
         <v>98</v>
       </c>
@@ -2994,6 +3018,54 @@
         <v>201</v>
       </c>
       <c r="D103" s="7"/>
+    </row>
+    <row r="104" ht="74" customHeight="1" spans="1:4">
+      <c r="A104" s="5">
+        <v>99</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:4">
+      <c r="A105" s="5">
+        <v>100</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" ht="99" customHeight="1" spans="1:4">
+      <c r="A106" s="5">
+        <v>101</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" ht="83" customHeight="1" spans="1:4">
+      <c r="A107" s="5">
+        <v>102</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="222">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -645,6 +645,42 @@
   </si>
   <si>
     <t>在玩家移动区域内，提示，然后爆炸出子弹</t>
+  </si>
+  <si>
+    <t>地图也做为一个中间boss</t>
+  </si>
+  <si>
+    <t>当怪物打完的时候，地图也会成为一个boss，也需要打掉，地图上的没有打掉的物体和树木，会成为子弹或者发攻击，或者发动树木进行攻击，树木或可以打掉</t>
+  </si>
+  <si>
+    <t>新增节奏点</t>
+  </si>
+  <si>
+    <t>1.打完普通敌人，2.打地图，3.打boss，，4，打房屋，5，打完女主角后女主角会和主角相会，游戏胜利</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>实际上女主角和主角发射了矛盾，然后女主角故意找了一些敌人，敌人被打败后，打地图，地图被打完了，女主角假装成boss攻击男主，boss被打掉后，其实是女主角，女主角攻击主角，为生气的样子，男主角需将其打醒，然后相会，游戏胜利，意思为，女主角被惹生气了，进行报复，然后女主的目标是打醒女主角，爱情或男女正常交往才能继续，boss可以是带上一个面具的女主角</t>
+  </si>
+  <si>
+    <t>角色表情</t>
+  </si>
+  <si>
+    <t>角色表情分为2个，一个为正常表情，一个为被攻击表情，女主角多一个生气的表情，作为最终boss。</t>
+  </si>
+  <si>
+    <t>房屋也可以作为一个节奏点</t>
+  </si>
+  <si>
+    <t>角色表情分为3个，一个为正常表情，一个为被攻击表情，女主角多一个生气的表情，作为最终boss。</t>
+  </si>
+  <si>
+    <t>攻击女主角前的对话</t>
+  </si>
+  <si>
+    <t>女主角出现前，跟主角说几句话，类似于，为什么惹我生气之类的，然后在进行攻击</t>
   </si>
 </sst>
 </file>
@@ -652,10 +688,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -685,14 +721,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,30 +755,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,7 +792,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,9 +822,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,16 +837,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,139 +919,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,6 +1015,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1039,25 +1075,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,26 +1133,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,16 +1155,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1177,9 +1196,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,138 +1224,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1747,10 +1783,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D107"/>
+  <dimension ref="A2:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3067,6 +3103,78 @@
       </c>
       <c r="D107" s="7"/>
     </row>
+    <row r="108" ht="93" customHeight="1" spans="1:4">
+      <c r="A108" s="5">
+        <v>103</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" ht="87" customHeight="1" spans="1:4">
+      <c r="A109" s="5">
+        <v>104</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" ht="154" customHeight="1" spans="1:4">
+      <c r="A110" s="5">
+        <v>105</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" ht="84" customHeight="1" spans="1:4">
+      <c r="A111" s="5">
+        <v>106</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:4">
+      <c r="A112" s="5">
+        <v>107</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:4">
+      <c r="A113" s="5">
+        <v>108</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="224">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -68,96 +68,96 @@
     <t>主角的攻击方式暂定，三种不同颜色攻击不同颜色的敌人</t>
   </si>
   <si>
+    <t>舍弃</t>
+  </si>
+  <si>
+    <t>敌人的样式</t>
+  </si>
+  <si>
+    <t>不同颜色的敌人，他们的速度和属性必定不一样，做出颜色的区别</t>
+  </si>
+  <si>
+    <t>某些敌人</t>
+  </si>
+  <si>
+    <t>某些敌人必须先打死，否则可能会攻击主角，或者是造成游戏失败等</t>
+  </si>
+  <si>
+    <t>模式1</t>
+  </si>
+  <si>
+    <t>无限子弹攻击模式，攻击到女主角则失败，并且可以升级武器的攻击速度和攻击力。弊端是颜色不好切换</t>
+  </si>
+  <si>
+    <t>模式2</t>
+  </si>
+  <si>
+    <t>子弹模式为固定模式，子弹自动旋转，对准则会攻击到目标，子弹打完则失败，每局子弹固定，否则很难控制失败</t>
+  </si>
+  <si>
+    <t>模式3，或者叫做解谜模式</t>
+  </si>
+  <si>
+    <t>增加解谜条件，固定子弹数量，设置数个机关，例如攻击某个石头，石头下面有个坑洞，虽然子弹数量不够，但是打到石头，石头爆炸后，会留下一个洞，敌人经过后会掉进去，也会胜利；这种模式会有子弹短缺的问题，但是要给予玩家提示的机会；一些树，草丛，石头，特殊敌人，都可以通过关卡，以子弹为钥匙的方式造成一些位移停止，变化，解救中间的公主。</t>
+  </si>
+  <si>
+    <t>模式4，简单模式</t>
+  </si>
+  <si>
+    <t>简单模式，就是没有颜色区分，就一个子弹，然后直接射击，子弹数量比怪物数量多，不会自动旋转，打完一个所有子弹旋转移动一格到固定位置，继续射击，失败条件是子弹打完。</t>
+  </si>
+  <si>
+    <t>武器的颜色</t>
+  </si>
+  <si>
+    <t>武器的颜色不仅仅是三种颜色，可以做很多种，和敌人一样，但是每次出现的时候，敌人的颜色和武器达的颜色匹配就行了。</t>
+  </si>
+  <si>
+    <t>增加暂停按钮，或者放回按钮</t>
+  </si>
+  <si>
+    <t>游戏中可能会存在僵局，如果没有时间限制，将无法计时返回主界面</t>
+  </si>
+  <si>
+    <t>场景内的景物和敌人</t>
+  </si>
+  <si>
+    <t>场景内的景物和敌人不一定要在旁边，也可以在场景中间，这样的话可以做很多变化</t>
+  </si>
+  <si>
+    <t>特殊敌人或者景物1</t>
+  </si>
+  <si>
+    <t>这个敌人和景物会有规律的张嘴吃掉我们打出去的武器</t>
+  </si>
+  <si>
+    <t>游戏模式定位</t>
+  </si>
+  <si>
+    <t>恶搞，惊喜，无厘头</t>
+  </si>
+  <si>
+    <t>感应盘也可以旋转</t>
+  </si>
+  <si>
+    <t>开启多点触控，两张图片，分两边。一边触摸控制感应盘（或弓），一个控制武器</t>
+  </si>
+  <si>
+    <t>不局限于球上的敌人，也有空中敌人</t>
+  </si>
+  <si>
+    <t>球上的敌人是陆地，空中也会出现敌人，这样射击体验更加丰富，甚至于空中敌人移动更加诡异，无法轻易打到</t>
+  </si>
+  <si>
+    <t>狙击</t>
+  </si>
+  <si>
+    <t>玩家可以移动位置，点击玩家可以横向移动位置，躲避怪物发射的子弹，通过三重操作，主角移动，旋转瞄准位置，旋转武器，到达某种意义上的狙击目的，景物是怪物的掩体</t>
+  </si>
+  <si>
     <t>完成</t>
   </si>
   <si>
-    <t>敌人的样式</t>
-  </si>
-  <si>
-    <t>不同颜色的敌人，他们的速度和属性必定不一样，做出颜色的区别</t>
-  </si>
-  <si>
-    <t>某些敌人</t>
-  </si>
-  <si>
-    <t>某些敌人必须先打死，否则可能会攻击主角，或者是造成游戏失败等</t>
-  </si>
-  <si>
-    <t>模式1</t>
-  </si>
-  <si>
-    <t>无限子弹攻击模式，攻击到女主角则失败，并且可以升级武器的攻击速度和攻击力。弊端是颜色不好切换</t>
-  </si>
-  <si>
-    <t>模式2</t>
-  </si>
-  <si>
-    <t>子弹模式为固定模式，子弹自动旋转，对准则会攻击到目标，子弹打完则失败，每局子弹固定，否则很难控制失败</t>
-  </si>
-  <si>
-    <t>舍弃</t>
-  </si>
-  <si>
-    <t>模式3，或者叫做解谜模式</t>
-  </si>
-  <si>
-    <t>增加解谜条件，固定子弹数量，设置数个机关，例如攻击某个石头，石头下面有个坑洞，虽然子弹数量不够，但是打到石头，石头爆炸后，会留下一个洞，敌人经过后会掉进去，也会胜利；这种模式会有子弹短缺的问题，但是要给予玩家提示的机会；一些树，草丛，石头，特殊敌人，都可以通过关卡，以子弹为钥匙的方式造成一些位移停止，变化，解救中间的公主。</t>
-  </si>
-  <si>
-    <t>模式4，简单模式</t>
-  </si>
-  <si>
-    <t>简单模式，就是没有颜色区分，就一个子弹，然后直接射击，子弹数量比怪物数量多，不会自动旋转，打完一个所有子弹旋转移动一格到固定位置，继续射击，失败条件是子弹打完。</t>
-  </si>
-  <si>
-    <t>武器的颜色</t>
-  </si>
-  <si>
-    <t>武器的颜色不仅仅是三种颜色，可以做很多种，和敌人一样，但是每次出现的时候，敌人的颜色和武器达的颜色匹配就行了。</t>
-  </si>
-  <si>
-    <t>增加暂停按钮，或者放回按钮</t>
-  </si>
-  <si>
-    <t>游戏中可能会存在僵局，如果没有时间限制，将无法计时返回主界面</t>
-  </si>
-  <si>
-    <t>场景内的景物和敌人</t>
-  </si>
-  <si>
-    <t>场景内的景物和敌人不一定要在旁边，也可以在场景中间，这样的话可以做很多变化</t>
-  </si>
-  <si>
-    <t>特殊敌人或者景物1</t>
-  </si>
-  <si>
-    <t>这个敌人和景物会有规律的张嘴吃掉我们打出去的武器</t>
-  </si>
-  <si>
-    <t>游戏模式定位</t>
-  </si>
-  <si>
-    <t>恶搞，惊喜，无厘头</t>
-  </si>
-  <si>
-    <t>感应盘也可以旋转</t>
-  </si>
-  <si>
-    <t>开启多点触控，两张图片，分两边。一边触摸控制感应盘（或弓），一个控制武器</t>
-  </si>
-  <si>
-    <t>不局限于球上的敌人，也有空中敌人</t>
-  </si>
-  <si>
-    <t>球上的敌人是陆地，空中也会出现敌人，这样射击体验更加丰富，甚至于空中敌人移动更加诡异，无法轻易打到</t>
-  </si>
-  <si>
-    <t>狙击</t>
-  </si>
-  <si>
-    <t>玩家可以移动位置，点击玩家可以横向移动位置，躲避怪物发射的子弹，通过三重操作，主角移动，旋转瞄准位置，旋转武器，到达某种意义上的狙击目的，景物是怪物的掩体</t>
-  </si>
-  <si>
     <t>场景可以缩小</t>
   </si>
   <si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t>女主角出现前，跟主角说几句话，类似于，为什么惹我生气之类的，然后在进行攻击</t>
+  </si>
+  <si>
+    <t>商店中的角色会有动作，并且碰到也会有动作</t>
+  </si>
+  <si>
+    <t>增加体验</t>
   </si>
 </sst>
 </file>
@@ -688,10 +694,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -728,48 +734,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,9 +762,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,23 +784,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,7 +792,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,14 +823,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,18 +907,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -925,85 +931,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,85 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,15 +1137,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1155,26 +1152,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,16 +1193,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1224,138 +1230,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1783,10 +1789,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D113"/>
+  <dimension ref="A2:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1941,8 +1947,8 @@
       <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="162" customHeight="1" spans="1:4">
@@ -1950,10 +1956,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -1962,13 +1968,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>26</v>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="88" customHeight="1" spans="1:4">
@@ -1976,10 +1982,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -1988,10 +1994,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -2000,10 +2006,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D18" s="7"/>
     </row>
@@ -2012,10 +2018,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -2024,10 +2030,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -2036,13 +2042,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>26</v>
+      <c r="D21" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="84" customHeight="1" spans="1:4">
@@ -2050,10 +2056,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -2062,13 +2068,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:4">
@@ -2105,8 +2111,8 @@
       <c r="C26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>17</v>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
@@ -2119,8 +2125,8 @@
       <c r="C27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>17</v>
+      <c r="D27" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="108" customHeight="1" spans="1:4">
@@ -2167,8 +2173,8 @@
       <c r="C31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>17</v>
+      <c r="D31" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="130" customHeight="1" spans="1:4">
@@ -2229,8 +2235,8 @@
       <c r="C36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>17</v>
+      <c r="D36" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="73" customHeight="1" spans="1:4">
@@ -2267,8 +2273,8 @@
       <c r="C39" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>17</v>
+      <c r="D39" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:4">
@@ -2293,8 +2299,8 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>17</v>
+      <c r="D41" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="77" customHeight="1" spans="1:4">
@@ -2307,8 +2313,8 @@
       <c r="C42" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>17</v>
+      <c r="D42" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="96" customHeight="1" spans="1:4">
@@ -2345,8 +2351,8 @@
       <c r="C45" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>17</v>
+      <c r="D45" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="93" customHeight="1" spans="1:4">
@@ -2359,8 +2365,8 @@
       <c r="C46" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>17</v>
+      <c r="D46" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="70" customHeight="1" spans="1:4">
@@ -2397,8 +2403,8 @@
       <c r="C49" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>17</v>
+      <c r="D49" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="87" customHeight="1" spans="1:4">
@@ -2471,8 +2477,8 @@
       <c r="C55" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>17</v>
+      <c r="D55" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="66" customHeight="1" spans="1:4">
@@ -2545,8 +2551,8 @@
       <c r="C61" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>17</v>
+      <c r="D61" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:4">
@@ -2679,8 +2685,8 @@
       <c r="C72" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>17</v>
+      <c r="D72" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="73" ht="78" customHeight="1" spans="1:4">
@@ -3163,7 +3169,7 @@
       </c>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" customHeight="1" spans="1:4">
+    <row r="113" ht="82" customHeight="1" spans="1:4">
       <c r="A113" s="5">
         <v>108</v>
       </c>
@@ -3174,6 +3180,18 @@
         <v>221</v>
       </c>
       <c r="D113" s="7"/>
+    </row>
+    <row r="114" ht="72" customHeight="1" spans="1:4">
+      <c r="A114" s="5">
+        <v>109</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="227">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -687,6 +687,15 @@
   </si>
   <si>
     <t>增加体验</t>
+  </si>
+  <si>
+    <t>树变为敌人的时候可以变个颜色</t>
+  </si>
+  <si>
+    <t>主角的弹幕以强度和子弹样式为主</t>
+  </si>
+  <si>
+    <t>废弃传统弹道形式，但是新的弹道形式也是增加弹幕，但不是横排的条数，有可能是特殊路径和花样</t>
   </si>
 </sst>
 </file>
@@ -727,6 +736,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -734,14 +750,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,17 +771,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -782,40 +790,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,14 +814,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,7 +822,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,6 +842,46 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -925,163 +934,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,13 +1030,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,6 +1140,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1152,21 +1170,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1184,17 +1187,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1202,11 +1194,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,138 +1239,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1789,10 +1798,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D114"/>
+  <dimension ref="A2:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3193,6 +3202,30 @@
       </c>
       <c r="D114" s="7"/>
     </row>
+    <row r="115" ht="77" customHeight="1" spans="1:4">
+      <c r="A115" s="5">
+        <v>110</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" ht="94" customHeight="1" spans="1:4">
+      <c r="A116" s="5">
+        <v>111</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D116" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="11985" tabRatio="500"/>
+    <workbookView windowWidth="21285" windowHeight="12570" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018.1月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="229">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -696,6 +696,12 @@
   </si>
   <si>
     <t>废弃传统弹道形式，但是新的弹道形式也是增加弹幕，但不是横排的条数，有可能是特殊路径和花样</t>
+  </si>
+  <si>
+    <t>一些boss被打死后，或许会掉落boss的攻击方式</t>
+  </si>
+  <si>
+    <t>丰富游戏玩法</t>
   </si>
 </sst>
 </file>
@@ -703,10 +709,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -735,8 +741,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,7 +762,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,56 +805,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -843,17 +820,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,20 +859,35 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -934,85 +940,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +1054,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,67 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,9 +1145,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,6 +1202,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1205,17 +1222,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,138 +1245,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1798,10 +1804,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D116"/>
+  <dimension ref="A2:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:D116"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3226,6 +3232,18 @@
       </c>
       <c r="D116" s="7"/>
     </row>
+    <row r="117" ht="65" customHeight="1" spans="1:4">
+      <c r="A117" s="5">
+        <v>112</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D117" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="241">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -702,6 +702,42 @@
   </si>
   <si>
     <t>丰富游戏玩法</t>
+  </si>
+  <si>
+    <t>设计明显的递进顺序</t>
+  </si>
+  <si>
+    <t>现在游戏是四个节奏，在每个节奏中都要添加一些可以增加角色强度或者表现的方式，然后最后一关全部展现出来，有一种前面三个节奏都是为了辅助第四个节奏点而设计的buff，或者隐藏的剧情，例如第三个节奏能打出一个重要的物品，吃了和不吃对游戏胜利有致命的影响，所以很多道具也可以选择性的吃，这样玩家下次可能会拒绝一下子弹样式或者是buff</t>
+  </si>
+  <si>
+    <t>同类型的子弹样式单独设计一个类</t>
+  </si>
+  <si>
+    <t>后面还有符合型子弹，把怪星大做作战的子弹也拿过来</t>
+  </si>
+  <si>
+    <t>将每一关的子弹样式设计的差不多</t>
+  </si>
+  <si>
+    <t>这样更紧凑，也更好设计，思路更加清晰，每一关写一个类，放在一个模块中，直接通过关卡调用，调试起来也方便</t>
+  </si>
+  <si>
+    <t>子弹如果太有规律，玩家不会死，就用两种攻击方式，或者增加些别的什么敌人</t>
+  </si>
+  <si>
+    <t>玩家必须死</t>
+  </si>
+  <si>
+    <t>玩家不能活的太轻松</t>
+  </si>
+  <si>
+    <t>宁愿让玩家死也不让玩家活</t>
+  </si>
+  <si>
+    <t>是否应该更往见缝插针上面靠</t>
+  </si>
+  <si>
+    <t>将其他节奏点融入见缝插针上去，可能更符合游戏的射击，多在地图上下功夫，可以保留一个节奏点或者中间插入两个节奏点作为纯射击</t>
   </si>
 </sst>
 </file>
@@ -1804,10 +1840,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D117"/>
+  <dimension ref="A2:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3244,6 +3280,90 @@
       </c>
       <c r="D117" s="7"/>
     </row>
+    <row r="118" ht="129" customHeight="1" spans="1:4">
+      <c r="A118" s="5">
+        <v>113</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" ht="92" customHeight="1" spans="1:4">
+      <c r="A119" s="5">
+        <v>114</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" ht="71" customHeight="1" spans="1:4">
+      <c r="A120" s="5">
+        <v>115</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" ht="79" customHeight="1" spans="1:4">
+      <c r="A121" s="5">
+        <v>116</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" ht="84" customHeight="1" spans="1:4">
+      <c r="A122" s="5">
+        <v>117</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" ht="73" customHeight="1" spans="1:4">
+      <c r="A123" s="5">
+        <v>118</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" ht="83" customHeight="1" spans="1:4">
+      <c r="A124" s="5">
+        <v>119</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D124" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21285" windowHeight="12570" tabRatio="500"/>
+    <workbookView windowWidth="21285" windowHeight="11790" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018.1月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="245">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -738,6 +738,18 @@
   </si>
   <si>
     <t>将其他节奏点融入见缝插针上去，可能更符合游戏的射击，多在地图上下功夫，可以保留一个节奏点或者中间插入两个节奏点作为纯射击</t>
+  </si>
+  <si>
+    <t>主角碰到任何敌人直接死亡</t>
+  </si>
+  <si>
+    <t>防止主角跑到最上面顶着boss打</t>
+  </si>
+  <si>
+    <t>角度计算公式有问题</t>
+  </si>
+  <si>
+    <t>重新整理</t>
   </si>
 </sst>
 </file>
@@ -745,10 +757,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -777,14 +789,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,8 +803,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,7 +825,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,30 +846,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,13 +878,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -902,24 +929,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,7 +988,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,91 +1084,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,19 +1120,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,43 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,13 +1191,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,6 +1245,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1232,8 +1274,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,38 +1283,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,138 +1293,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1840,10 +1852,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D124"/>
+  <dimension ref="A2:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3364,6 +3376,30 @@
       </c>
       <c r="D124" s="7"/>
     </row>
+    <row r="125" ht="72" customHeight="1" spans="1:4">
+      <c r="A125" s="5">
+        <v>120</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:4">
+      <c r="A126" s="5">
+        <v>121</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D126" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="249">
   <si>
     <t xml:space="preserve">计划表 </t>
   </si>
@@ -620,7 +620,7 @@
     <t>武器新设想</t>
   </si>
   <si>
-    <t>为了节约美术成本和表现，可以用弓箭插在头上，或者是头发，闪电等作为射击起点</t>
+    <t>为了节约美术成本和表现，可以用弓箭插在头上，或者是头发，闪电等作为射击起点，不过最好是和头发一样颜色的圆形子弹或者是方形菱形这种简单造型</t>
   </si>
   <si>
     <t>主角的弹幕表现</t>
@@ -750,6 +750,18 @@
   </si>
   <si>
     <t>重新整理</t>
+  </si>
+  <si>
+    <t>敌人的移动</t>
+  </si>
+  <si>
+    <t>陆地不移动，房子不移动，boss移动，女主做不规则移动</t>
+  </si>
+  <si>
+    <t>敌人的飞行</t>
+  </si>
+  <si>
+    <t>陆地不移动，房子不移动，boss头上带个竹蜻蜓，女主长了翅膀等等</t>
   </si>
 </sst>
 </file>
@@ -757,8 +769,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -789,6 +801,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -803,19 +820,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -823,9 +827,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,16 +849,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,14 +887,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -907,13 +901,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -936,6 +932,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -988,37 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,19 +1012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,55 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,37 +1042,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,13 +1156,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,36 +1199,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,17 +1227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1280,6 +1251,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1288,143 +1274,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1852,10 +1864,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D126"/>
+  <dimension ref="A2:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3352,53 +3364,65 @@
       </c>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" ht="73" customHeight="1" spans="1:4">
+    <row r="123" ht="83" customHeight="1" spans="1:4">
       <c r="A123" s="5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" ht="83" customHeight="1" spans="1:4">
+    <row r="124" ht="72" customHeight="1" spans="1:4">
       <c r="A124" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" ht="72" customHeight="1" spans="1:4">
+    <row r="125" customHeight="1" spans="1:4">
       <c r="A125" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D125" s="7"/>
     </row>
     <row r="126" customHeight="1" spans="1:4">
       <c r="A126" s="5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D126" s="7"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:4">
+      <c r="A127" s="5">
+        <v>123</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D127" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/计划/计划表.xlsx
+++ b/计划/计划表.xlsx
@@ -758,7 +758,7 @@
     <t>陆地不移动，房子不移动，boss移动，女主做不规则移动</t>
   </si>
   <si>
-    <t>敌人的飞行</t>
+    <t>敌人的飞行的表现</t>
   </si>
   <si>
     <t>陆地不移动，房子不移动，boss头上带个竹蜻蜓，女主长了翅膀等等</t>
@@ -1867,7 +1867,7 @@
   <dimension ref="A2:D127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
